--- a/experiment_results/SBFL_ONLY/Summary/GPL/multiple_bugs_123bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/GPL/multiple_bugs_123bug.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="9">
   <si>
     <t>EVALUATION_METRIC</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Worst rank</t>
+  </si>
+  <si>
+    <t>Best exam</t>
+  </si>
+  <si>
+    <t>Worst exam</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,6 +520,22 @@
         <v>58.54301075268818</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.6056997372664681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6.058589891617143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -521,7 +543,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,6 +662,22 @@
         <v>59.7741935483871</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.5002442132441022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6.18544258360597</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -647,7 +685,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -766,6 +804,22 @@
         <v>73.86827956989248</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.5005224919235028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>7.643802729441671</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -773,7 +827,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -892,6 +946,22 @@
         <v>103.8118279569892</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.102717554146613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>10.74198546519118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -899,7 +969,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1018,6 +1088,22 @@
         <v>103.8118279569892</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.102717554146613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>10.74198546519118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1025,7 +1111,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,6 +1230,22 @@
         <v>76.36827956989248</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.4718661083096772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>7.902647312755406</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1151,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1270,6 +1372,22 @@
         <v>78.20430107526882</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.5033087195474351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>8.091778220084375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1277,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1396,6 +1514,22 @@
         <v>92.89516129032258</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.262256377046667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>9.612032517950047</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1403,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1522,6 +1656,22 @@
         <v>424.6048387096774</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>19.19480269036914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>43.94279058401018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1529,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,6 +1798,22 @@
         <v>59.7741935483871</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.5002442132441022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6.18544258360597</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1655,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1774,6 +1940,22 @@
         <v>59.7741935483871</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.5002442132441022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6.18544258360597</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1781,7 +1963,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1900,6 +2082,22 @@
         <v>60.63440860215054</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.4701972977771723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6.274753139356236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1907,7 +2105,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2026,6 +2224,22 @@
         <v>424.6048387096774</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>19.19480269036914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>43.94279058401018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2033,7 +2247,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2152,6 +2366,22 @@
         <v>424.6048387096774</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>19.19480269036914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>43.94279058401018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2159,7 +2389,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2278,6 +2508,22 @@
         <v>424.6048387096774</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>19.19480269036914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>43.94279058401018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2285,7 +2531,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2404,6 +2650,22 @@
         <v>61.34408602150538</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.5249986431563416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6.348232479383399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2411,7 +2673,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2530,6 +2792,22 @@
         <v>79.55645161290323</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.4718646712152521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>8.232625232458322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2537,7 +2815,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2656,6 +2934,22 @@
         <v>424.6048387096774</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>19.19480269036914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>43.94279058401018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2663,7 +2957,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2782,6 +3076,22 @@
         <v>114.8467741935484</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.303363663902862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>11.88339975269353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2789,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2908,6 +3218,22 @@
         <v>59.7741935483871</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.5002442132441022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6.18544258360597</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2915,7 +3241,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3034,6 +3360,22 @@
         <v>59.7741935483871</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.5002442132441022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6.18544258360597</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3041,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3160,6 +3502,22 @@
         <v>80.59408602150538</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.4718646712152521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>8.33999600242424</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3167,7 +3525,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3286,6 +3644,22 @@
         <v>78.66397849462365</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.6001120441847795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>8.13931821420611</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3293,7 +3667,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3412,6 +3786,22 @@
         <v>63.7741935483871</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.4752031520422711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6.599823973184511</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3419,7 +3809,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3538,6 +3928,22 @@
         <v>58.54301075268818</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.6081964914859826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6.058589891617143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3545,7 +3951,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3664,6 +4070,22 @@
         <v>67.65860215053763</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.472423527212378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>7.000954535165708</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3671,7 +4093,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3790,6 +4212,22 @@
         <v>92.89516129032258</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.262256377046667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>9.612032517950047</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3797,7 +4235,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3916,6 +4354,22 @@
         <v>424.6048387096774</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>19.19480269036914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>43.94279058401018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3923,7 +4377,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4042,6 +4496,22 @@
         <v>424.6048387096774</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>19.19480269036914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>43.94279058401018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4049,7 +4519,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4168,6 +4638,22 @@
         <v>109.1370967741936</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.4793790553210799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>11.29323787143593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiment_results/SBFL_ONLY/Summary/GPL/multiple_bugs_123bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/GPL/multiple_bugs_123bug.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="10">
   <si>
     <t>EVALUATION_METRIC</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Proportion of cases that found bugs</t>
+  </si>
+  <si>
+    <t>Num of cases that found bugs (Hit@x)</t>
   </si>
   <si>
     <t>Best rank</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08781362007168456</v>
+        <v>0.0878136200716846</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -434,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.301971326164874</v>
+        <v>0.3019713261648746</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -442,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4153225806451623</v>
+        <v>0.4153225806451613</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4722222222222227</v>
+        <v>0.4722222222222222</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5716845878136205</v>
+        <v>0.5728046594982078</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,32 +511,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.852150537634409</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>58.54301075268818</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.6056997372664681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>6.058589891617143</v>
+      <c r="C19">
+        <v>0.6056997372664668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6.058589891617168</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +589,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -568,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1093189964157707</v>
+        <v>0.1093189964157706</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -576,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3243727598566304</v>
+        <v>0.3243727598566308</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -584,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5179211469534069</v>
+        <v>0.5176971326164874</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -592,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.554659498207887</v>
+        <v>0.5544354838709676</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -600,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.6097670250896066</v>
+        <v>0.610663082437276</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -650,32 +696,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>59.7741935483871</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.5002442132441022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>6.18544258360597</v>
+      <c r="C19">
+        <v>0.500244213244102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6.185442583605996</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +774,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -710,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1093189964157707</v>
+        <v>0.1093189964157706</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -718,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3243727598566304</v>
+        <v>0.3243727598566308</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -726,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5179211469534069</v>
+        <v>0.5176971326164874</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -734,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.554659498207887</v>
+        <v>0.5544354838709676</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -742,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.611559139784947</v>
+        <v>0.6124551971326165</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -792,32 +881,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.836021505376344</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>73.86827956989248</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.5005224919235028</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>7.643802729441671</v>
+      <c r="C19">
+        <v>0.5005224919235026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>7.643802729441701</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +959,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -852,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1066308243727599</v>
+        <v>0.1066308243727598</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -860,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3216845878136196</v>
+        <v>0.3216845878136201</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -868,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5152329749103961</v>
+        <v>0.5150089605734767</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -876,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5519713261648762</v>
+        <v>0.5517473118279569</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -884,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.6048387096774201</v>
+        <v>0.6043906810035843</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -934,32 +1066,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>10.65322580645161</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>103.8118279569892</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.102717554146613</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>10.74198546519118</v>
+      <c r="C19">
+        <v>1.102717554146615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>10.74198546519121</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1066308243727599</v>
+        <v>0.1066308243727598</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1002,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3216845878136196</v>
+        <v>0.3216845878136201</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1010,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5152329749103961</v>
+        <v>0.5150089605734767</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1018,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5519713261648762</v>
+        <v>0.5517473118279569</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1026,7 +1201,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.6048387096774201</v>
+        <v>0.6043906810035843</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1076,32 +1251,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>10.65322580645161</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>103.8118279569892</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.102717554146613</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>10.74198546519118</v>
+      <c r="C19">
+        <v>1.102717554146615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>10.74198546519121</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1136,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1187275985663083</v>
+        <v>0.1187275985663082</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1144,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3418458781362003</v>
+        <v>0.3418458781362007</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1152,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5165770609319014</v>
+        <v>0.516353046594982</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1160,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5551075268817222</v>
+        <v>0.5548835125448027</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1168,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.6218637992831552</v>
+        <v>0.6227598566308243</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1218,32 +1436,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.559139784946237</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>76.36827956989248</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.4718661083096772</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>7.902647312755406</v>
+      <c r="C19">
+        <v>0.4718661083096773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>7.90264731275543</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1514,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1278,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1375448028673836</v>
+        <v>0.1375448028673835</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1286,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3373655913978491</v>
+        <v>0.3373655913978494</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1294,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.496863799283156</v>
+        <v>0.4966397849462366</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1302,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5103046594982097</v>
+        <v>0.5100806451612904</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1310,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5403225806451631</v>
+        <v>0.541442652329749</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1360,32 +1621,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.862903225806452</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>78.20430107526882</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.5033087195474351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>8.091778220084375</v>
+      <c r="C19">
+        <v>0.5033087195474354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>8.091778220084404</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1699,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1428,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.04345878136200717</v>
+        <v>0.04345878136200716</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1436,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.05913978494623654</v>
+        <v>0.05913978494623656</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1444,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1357526881720431</v>
+        <v>0.135752688172043</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1452,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2141577060931896</v>
+        <v>0.21415770609319</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1502,32 +1806,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>12.19623655913978</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>92.89516129032258</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.262256377046667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>9.612032517950047</v>
+      <c r="C19">
+        <v>1.262256377046669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>9.612032517950055</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1884,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.07078853046594974</v>
+        <v>0.07078853046594982</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1578,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1052867383512546</v>
+        <v>0.1052867383512545</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1586,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1093189964157707</v>
+        <v>0.1093189964157706</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1594,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1129032258064517</v>
+        <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1644,32 +1991,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>185.4274193548387</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>424.6048387096774</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>19.19480269036914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>43.94279058401018</v>
+      <c r="C19">
+        <v>19.19480269036912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>43.94279058401017</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +2069,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1704,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1093189964157707</v>
+        <v>0.1093189964157706</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1712,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3243727598566304</v>
+        <v>0.3243727598566308</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1720,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5179211469534069</v>
+        <v>0.5176971326164874</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1728,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.554659498207887</v>
+        <v>0.5544354838709676</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1736,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.6097670250896066</v>
+        <v>0.610663082437276</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1786,32 +2176,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>59.7741935483871</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.5002442132441022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>6.18544258360597</v>
+      <c r="C19">
+        <v>0.500244213244102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6.185442583605996</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +2254,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1846,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1093189964157707</v>
+        <v>0.1093189964157706</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1854,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3243727598566304</v>
+        <v>0.3243727598566308</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1862,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5179211469534069</v>
+        <v>0.5176971326164874</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1870,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.554659498207887</v>
+        <v>0.5544354838709676</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1878,7 +2311,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.6097670250896066</v>
+        <v>0.610663082437276</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1928,32 +2361,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>59.7741935483871</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.5002442132441022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>6.18544258360597</v>
+      <c r="C19">
+        <v>0.500244213244102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6.185442583605996</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +2439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1988,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1187275985663083</v>
+        <v>0.1187275985663082</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1996,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3405017921146949</v>
+        <v>0.3405017921146953</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2004,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5246415770609338</v>
+        <v>0.5244175627240143</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2012,7 +2488,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5528673835125465</v>
+        <v>0.5526433691756272</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2020,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.616935483870969</v>
+        <v>0.6178315412186379</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2070,32 +2546,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.543010752688172</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>60.63440860215054</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>0.4701972977771723</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>6.274753139356236</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6.274753139356264</v>
       </c>
     </row>
   </sheetData>
@@ -2105,7 +2624,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2138,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.07078853046594974</v>
+        <v>0.07078853046594982</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2146,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1052867383512546</v>
+        <v>0.1052867383512545</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2154,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1093189964157707</v>
+        <v>0.1093189964157706</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2162,7 +2681,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1129032258064517</v>
+        <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2212,32 +2731,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>185.4274193548387</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>424.6048387096774</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>19.19480269036914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>43.94279058401018</v>
+      <c r="C19">
+        <v>19.19480269036912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>43.94279058401017</v>
       </c>
     </row>
   </sheetData>
@@ -2247,7 +2809,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2280,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.07078853046594974</v>
+        <v>0.07078853046594982</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2288,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1052867383512546</v>
+        <v>0.1052867383512545</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2296,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1093189964157707</v>
+        <v>0.1093189964157706</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2304,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1129032258064517</v>
+        <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2354,32 +2916,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>185.4274193548387</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>424.6048387096774</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>19.19480269036914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>43.94279058401018</v>
+      <c r="C19">
+        <v>19.19480269036912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>43.94279058401017</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2994,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2422,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.07078853046594974</v>
+        <v>0.07078853046594982</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2430,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1052867383512546</v>
+        <v>0.1052867383512545</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2438,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1093189964157707</v>
+        <v>0.1093189964157706</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2446,7 +3051,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1129032258064517</v>
+        <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2496,32 +3101,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>185.4274193548387</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>424.6048387096774</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>19.19480269036914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>43.94279058401018</v>
+      <c r="C19">
+        <v>19.19480269036912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>43.94279058401017</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +3179,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2564,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3275089605734763</v>
+        <v>0.3275089605734767</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2572,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4690860215053779</v>
+        <v>0.4688620071684588</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2580,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5138888888888905</v>
+        <v>0.5136648745519713</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2588,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5600358422939081</v>
+        <v>0.5611559139784946</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2638,32 +3286,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.07258064516129</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>61.34408602150538</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.5249986431563416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>6.348232479383399</v>
+      <c r="C19">
+        <v>0.5249986431563415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6.348232479383425</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +3364,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2706,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3342293906810032</v>
+        <v>0.3342293906810036</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2714,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5170250896057365</v>
+        <v>0.5168010752688172</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2722,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5577956989247329</v>
+        <v>0.5575716845878135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2730,7 +3421,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.6075268817204315</v>
+        <v>0.6086469534050178</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2780,32 +3471,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.559139784946237</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>79.55645161290323</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.4718646712152521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>8.232625232458322</v>
+      <c r="C19">
+        <v>0.471864671215252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>8.232625232458357</v>
       </c>
     </row>
   </sheetData>
@@ -2815,7 +3549,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2848,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.07078853046594974</v>
+        <v>0.07078853046594982</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2856,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1052867383512546</v>
+        <v>0.1052867383512545</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2864,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1093189964157707</v>
+        <v>0.1093189964157706</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2872,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1129032258064517</v>
+        <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2922,32 +3656,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>185.4274193548387</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>424.6048387096774</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>19.19480269036914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>43.94279058401018</v>
+      <c r="C19">
+        <v>19.19480269036912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>43.94279058401017</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +3734,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2982,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1348566308243728</v>
+        <v>0.1348566308243727</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2990,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3445340501792111</v>
+        <v>0.3445340501792115</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2998,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5192652329749122</v>
+        <v>0.5190412186379928</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3006,7 +3783,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5430107526881739</v>
+        <v>0.5427867383512543</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3014,7 +3791,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5990143369175642</v>
+        <v>0.5987903225806451</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3064,32 +3841,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>12.59139784946237</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>114.8467741935484</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.303363663902862</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>11.88339975269353</v>
+      <c r="C19">
+        <v>1.303363663902865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>11.88339975269358</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3919,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3124,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1093189964157707</v>
+        <v>0.1093189964157706</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3132,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3243727598566304</v>
+        <v>0.3243727598566308</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3140,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5179211469534069</v>
+        <v>0.5176971326164874</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3148,7 +3968,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.554659498207887</v>
+        <v>0.5544354838709676</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3156,7 +3976,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.6097670250896066</v>
+        <v>0.610663082437276</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3206,32 +4026,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>59.7741935483871</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.5002442132441022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>6.18544258360597</v>
+      <c r="C19">
+        <v>0.500244213244102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6.185442583605996</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +4104,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3266,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1093189964157707</v>
+        <v>0.1093189964157706</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3274,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3243727598566304</v>
+        <v>0.3243727598566308</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3282,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5179211469534069</v>
+        <v>0.5176971326164874</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3290,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.554659498207887</v>
+        <v>0.5544354838709676</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3298,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.6097670250896066</v>
+        <v>0.610663082437276</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3348,32 +4211,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>59.7741935483871</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.5002442132441022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>6.18544258360597</v>
+      <c r="C19">
+        <v>0.500244213244102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6.185442583605996</v>
       </c>
     </row>
   </sheetData>
@@ -3383,7 +4289,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3416,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3342293906810032</v>
+        <v>0.3342293906810036</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3424,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5170250896057365</v>
+        <v>0.5168010752688172</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3432,7 +4338,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5577956989247329</v>
+        <v>0.5575716845878135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3440,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.6075268817204315</v>
+        <v>0.6086469534050178</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3490,32 +4396,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.559139784946237</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>80.59408602150538</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.4718646712152521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>8.33999600242424</v>
+      <c r="C19">
+        <v>0.471864671215252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>8.339996002424275</v>
       </c>
     </row>
   </sheetData>
@@ -3525,7 +4474,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3558,7 +4507,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3064516129032255</v>
+        <v>0.3064516129032258</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3566,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.386200716845879</v>
+        <v>0.3862007168458782</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3574,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4175627240143379</v>
+        <v>0.4175627240143369</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3582,7 +4531,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.446236559139786</v>
+        <v>0.4475806451612903</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3632,32 +4581,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.798387096774194</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>78.66397849462365</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.6001120441847795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>8.13931821420611</v>
+      <c r="C19">
+        <v>0.6001120441847783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>8.13931821420614</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +4659,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3692,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1393369175627241</v>
+        <v>0.139336917562724</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3700,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3328853046594978</v>
+        <v>0.3328853046594982</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3708,7 +4700,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5107526881720448</v>
+        <v>0.5105286738351253</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3716,7 +4708,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5461469534050196</v>
+        <v>0.5459229390681003</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3724,7 +4716,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5860215053763456</v>
+        <v>0.5871415770609318</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3774,32 +4766,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.591397849462366</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>63.7741935483871</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.4752031520422711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>6.599823973184511</v>
+      <c r="C19">
+        <v>0.4752031520422713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6.599823973184535</v>
       </c>
     </row>
   </sheetData>
@@ -3809,7 +4844,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3834,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08781362007168456</v>
+        <v>0.0878136200716846</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3842,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2983870967741931</v>
+        <v>0.2983870967741936</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3850,7 +4885,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4117383512544813</v>
+        <v>0.4117383512544803</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3858,7 +4893,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4708781362007173</v>
+        <v>0.4708781362007168</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3866,7 +4901,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5703405017921152</v>
+        <v>0.5714605734767024</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3916,32 +4951,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.876344086021505</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>58.54301075268818</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.6081964914859826</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>6.058589891617143</v>
+      <c r="C19">
+        <v>0.6081964914859812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6.058589891617168</v>
       </c>
     </row>
   </sheetData>
@@ -3951,7 +5029,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3976,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1187275985663083</v>
+        <v>0.1187275985663082</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3984,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3391577060931895</v>
+        <v>0.33915770609319</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3992,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5192652329749122</v>
+        <v>0.5190412186379928</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4000,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5430107526881739</v>
+        <v>0.5427867383512543</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4008,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.6061827956989261</v>
+        <v>0.6073028673835125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4058,32 +5136,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.564516129032258</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>67.65860215053763</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.472423527212378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>7.000954535165708</v>
+      <c r="C19">
+        <v>0.4724235272123778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>7.000954535165731</v>
       </c>
     </row>
   </sheetData>
@@ -4093,7 +5214,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4126,7 +5247,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.04345878136200717</v>
+        <v>0.04345878136200716</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4134,7 +5255,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.05913978494623654</v>
+        <v>0.05913978494623656</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4142,7 +5263,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1357526881720431</v>
+        <v>0.135752688172043</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4150,7 +5271,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2141577060931896</v>
+        <v>0.21415770609319</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4200,32 +5321,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>12.19623655913978</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>92.89516129032258</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.262256377046667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>9.612032517950047</v>
+      <c r="C19">
+        <v>1.262256377046669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>9.612032517950055</v>
       </c>
     </row>
   </sheetData>
@@ -4235,7 +5399,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4268,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.07078853046594974</v>
+        <v>0.07078853046594982</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4276,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1052867383512546</v>
+        <v>0.1052867383512545</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4284,7 +5448,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1093189964157707</v>
+        <v>0.1093189964157706</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4292,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1129032258064517</v>
+        <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4342,32 +5506,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>185.4274193548387</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>424.6048387096774</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>19.19480269036914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>43.94279058401018</v>
+      <c r="C19">
+        <v>19.19480269036912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>43.94279058401017</v>
       </c>
     </row>
   </sheetData>
@@ -4377,7 +5584,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4410,7 +5617,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.07078853046594974</v>
+        <v>0.07078853046594982</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4418,7 +5625,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1052867383512546</v>
+        <v>0.1052867383512545</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4426,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1093189964157707</v>
+        <v>0.1093189964157706</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4434,7 +5641,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1129032258064517</v>
+        <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4484,32 +5691,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>185.4274193548387</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>424.6048387096774</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>19.19480269036914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>43.94279058401018</v>
+      <c r="C19">
+        <v>19.19480269036912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>43.94279058401017</v>
       </c>
     </row>
   </sheetData>
@@ -4519,7 +5769,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4544,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.138888888888889</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4552,7 +5802,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3458781362007164</v>
+        <v>0.3458781362007169</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4560,7 +5810,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5165770609319015</v>
+        <v>0.516353046594982</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4568,7 +5818,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5327060931899661</v>
+        <v>0.5324820788530465</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4576,7 +5826,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5757168458781378</v>
+        <v>0.5768369175627239</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4626,32 +5876,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.631720430107527</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>109.1370967741936</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>0.4793790553210799</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>11.29323787143593</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>11.29323787143598</v>
       </c>
     </row>
   </sheetData>
